--- a/biology/Botanique/Glossaire_de_l'œnologie/Glossaire_de_l'œnologie.xlsx
+++ b/biology/Botanique/Glossaire_de_l'œnologie/Glossaire_de_l'œnologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce glossaire donne des définitions simples des principaux termes utilisés en œnologie, c'est à dire tout ce qui touche de près ou de loin à la filière viti-vinicole et à la culture du vin (dégustation, conservation et consommation du produit fini). Les termes propre à la culture de la vigne étant listés dans le glossaire de la viticulture.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acide citrique : présent dans les raisins de tout cépage et en plus grande quantité dans les moûts concentrés par la pourriture ou le passerillage. Les teneurs en acide citrique des vins sont très variables, ils sont surtout présents dans les vins blancs.
 Acide lactique : au cours de la fermentation malolactique, l'acide L-malique, naturellement contenu dans le vin, est dégradé en acide L-lactique sous l'action de bactéries.
@@ -560,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,7 +592,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barrique : fût en bois (généralement de chêne) servant à élever et conserver le vin.
 Bâtonnage : remise en suspension des levures mortes et des résidus de raisins dans la cuve. Opération de vinification permettant la complexification des arômes et le renforcement de la charpente du vin.
@@ -598,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,7 +632,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Capsule à vis (ou bouchon à vis) : permettant de fermer hermétiquement les bouteilles en verre comportant un col fileté.
 Cave coopérative de vinification : association de producteurs d'une région viticole. Ces structures collectent les raisins apportés par leurs adhérents, les vinifient et se chargent de la commercialisation des vins.
@@ -641,7 +659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -659,7 +677,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Débourbage : clarification d'un moût par élimination des bourbes (résidus végétaux solides produits par le pressurage du raisin)
 Décanter : action consistant à éliminer les dépôts formés dans un vin devant être réalisée juste avant la dégustation.
@@ -675,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,7 +713,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Effervescence : bulles et mousse présentes dans le vin.
 Effluents viticoles : ensemble des rejets liés à la transformation du vin.
@@ -707,7 +729,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -725,7 +747,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fermentation alcoolique : processus biochimique par lequel des sucres (glucides, principalement le glucose) sont transformés en alcool (éthanol) dans un milieu liquide, privé d'air.
 Fermentation malolactique : en abrégée « FML » ou « malo » : transformation de l'acide malique en acide lactique par l'intermédiaire de bactéries anaérobies. Elle se traduit par une diminution de l'acidité permettant une stabilisation et un assouplissement du vin, particulièrement recherchés pour la vinification en rouge.
@@ -743,7 +767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +785,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gazéification : permet d'obtenir un vin effervescent, c'est à dire un vin contenant une concentration en dioxyde de carbone dissous (CO2) suffisante pour produire bulles et mousse à l'ouverture de la bouteille quand la pression chute soudainement. L'éclatement physique des bulles combiné à l'acide carbonique dissous engendre une sensation de picotement une fois en bouche. Il se distingue ainsi par rapport aux vins dits tranquilles.
 Gélatine : parfois utilisée dans la production du vin pour la clarification par collage.
@@ -775,7 +801,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,7 +819,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jus clair : obtenu par débourbage; c'est à dire par clarification d'un moût (le jus de raisin) avant sa fermentationen éliminant les bourbes (les résidus végétaux solides produits par le pressurage du raisin). C'est une étape dans l’élaboration des vins blancs et rosés.
 Jus de raisin : liquide obtenu par extraction de la pulpe des baies de raisin, consommable tel quel mais appelé moût s'il est destiné à être fermenté en vin,</t>
@@ -806,7 +834,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -824,7 +852,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Levure : terme générique désignant les micro-organismes transformant le sucre en alcool.
 Levurage : opération destinée à démarrer une fermentation alcoolique contrôlée d'un moût en l'ensemençant avec des levures.
@@ -840,7 +870,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +888,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Macération : mélange des peaux des raisins, des pépins et des jus avant que ne débute la fermentation alcoolique.
 Macération carbonique : technique de vinification des vins primeurs, convenant également à l’obtention des vins de garde.
@@ -881,7 +913,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,6 +932,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -907,7 +941,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -925,7 +959,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Ouillage : opération consistant à refaire le niveau d'une cuve ou d'un fût pour compenser les pertes dues à l'évaporation.
 Oxydation du vin : phénomène naturel se produisant en présence d'oxygène de l'air qui modifie les qualités organoleptiques. L'oxydation peut être souhaitée, dans le cas de l'élevage et du vieillissement, ou de la madérisation ou non souhaitée car elle peut altérer le vin, dans le cas d'une oxydation prématurée, d'une casse oxydasique, ou du rosissement des vins blancs.</t>
@@ -938,7 +974,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -956,7 +992,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Passerillage : technique permettant d'enrichir le raisin en sucre en lui faisant perdre une partie de son volume en eau.
 Piqûre acétique : dégradation de l'éthanol en acide acétique et en acétate d'éthyle par des bactéries acétiques   provoquant une fermentation acétique à l'origine du vinaigre.
@@ -975,7 +1013,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -993,7 +1031,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Quercus suber : Chêne-liège dont l'écorce est utilisée pour faire les bouchons en liège.</t>
         </is>
@@ -1005,7 +1045,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1023,7 +1063,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Remontage : action consistant à prendre le moût ou le vin depuis le fond d'un contenant pour le renvoyer au sommet.
 Réserve : mention assez vague, non-réglementée en France, désignant souvent une cuvée de qualité supérieure au sein d'une gamme de vins. Cette désignation peut aussi vouloir distinguer une cuvée spéciale destinée à la garde.
@@ -1037,7 +1079,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1055,7 +1097,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Saignée : méthode historique de vinification en rosé.
 Sang de bœuf ou calitor : ancien cépage provençal assez peu répandu en France.
@@ -1070,7 +1114,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1088,7 +1132,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Tannin : ensemble de composés variés issue de la baie de raisin et éventuellement de la rafle. Sans arômes ni saveurs, les tannins provoquent néanmoins une sensation tactile en bouche (assèchement du palais, resserrement des gencives).
 Tartre ou cristaux de tartre
@@ -1106,7 +1152,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glossaire_de_l%27%C5%93nologie</t>
+          <t>Glossaire_de_l'œnologie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1124,7 +1170,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Vieillissement du vin : pratique pouvant améliorer la qualité du vin et qui distingue le vin de la plupart des autres biens consommables qui se dégradent en vieillissant..
 Vigne : individu ou population de Vitacées, en général de Vitis vinifera.
